--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH2012025_CaoAnhVuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2020/Thang12/04.TraBH/TBH2012025_CaoAnhVuong.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>Vũ Duy Tuấn</t>
+  </si>
+  <si>
+    <t>TASETCO: 44451775</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,64 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -809,65 +866,11 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1226,7 +1229,7 @@
   <dimension ref="A1:M66"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="85" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B7" sqref="B7:I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1246,137 +1249,139 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="56" t="s">
+      <c r="A1" s="55"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="58"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="59" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="60"/>
-      <c r="H2" s="60"/>
-      <c r="I2" s="61"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="59" t="s">
+      <c r="A3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="61"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="51"/>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="62" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="64"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="54"/>
     </row>
     <row r="5" spans="1:13" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="55"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="73"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23"/>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="17"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="H6" s="11"/>
       <c r="I6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
-      <c r="B7" s="48" t="s">
+      <c r="B7" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="49"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25"/>
-      <c r="B8" s="46" t="s">
+      <c r="B8" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="47"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="65"/>
     </row>
     <row r="9" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
-      <c r="H9" s="48"/>
-      <c r="I9" s="49"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
       <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="26"/>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="51"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="69"/>
       <c r="L10" s="1" t="s">
         <v>12</v>
       </c>
@@ -1425,13 +1430,13 @@
         <v>18</v>
       </c>
       <c r="F12" s="43"/>
-      <c r="G12" s="74" t="s">
+      <c r="G12" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="H12" s="74" t="s">
+      <c r="H12" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="I12" s="75">
+      <c r="I12" s="45">
         <v>70000</v>
       </c>
     </row>
@@ -1450,13 +1455,13 @@
         <v>18</v>
       </c>
       <c r="F13" s="42"/>
-      <c r="G13" s="74" t="s">
+      <c r="G13" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="74" t="s">
+      <c r="H13" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="75">
+      <c r="I13" s="45">
         <v>40000</v>
       </c>
     </row>
@@ -1475,13 +1480,13 @@
         <v>18</v>
       </c>
       <c r="F14" s="42"/>
-      <c r="G14" s="74" t="s">
+      <c r="G14" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="H14" s="74" t="s">
+      <c r="H14" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="I14" s="75">
+      <c r="I14" s="45">
         <v>20000</v>
       </c>
     </row>
@@ -1523,13 +1528,13 @@
       <c r="I17" s="41"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="37" t="s">
@@ -1582,42 +1587,42 @@
       <c r="I22" s="20"/>
     </row>
     <row r="24" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
       <c r="H24" s="36" t="s">
         <v>34</v>
       </c>
       <c r="I24" s="34"/>
     </row>
     <row r="27" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="74"/>
     </row>
     <row r="66" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="F4:I4"/>
-    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A24:E24"/>
     <mergeCell ref="B8:I8"/>
     <mergeCell ref="B9:I9"/>
     <mergeCell ref="B10:I10"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="A1:E4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0" top="0.98425196850393704" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="75" orientation="landscape" r:id="rId1"/>
